--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3894.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3894.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.00947571971281</v>
+        <v>1.740127682685852</v>
       </c>
       <c r="B1">
-        <v>2.049130896568974</v>
+        <v>2.297441720962524</v>
       </c>
       <c r="C1">
-        <v>2.243184891805075</v>
+        <v>4.628640651702881</v>
       </c>
       <c r="D1">
-        <v>3.268141570598046</v>
+        <v>4.179306983947754</v>
       </c>
       <c r="E1">
-        <v>3.688286985857899</v>
+        <v>1.682458162307739</v>
       </c>
     </row>
   </sheetData>
